--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/8 MATERIALIDAD.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/8 MATERIALIDAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B558A1A-CA80-4F27-A9C6-19AD75655950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8C51D2-6188-46EB-9F27-288D550DD977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,6 +494,18 @@
     <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -517,18 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -832,7 +832,7 @@
   <dimension ref="B2:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +851,7 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="2"/>
@@ -861,12 +861,12 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="41"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="2"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="41"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>0</v>
@@ -882,12 +882,12 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
@@ -895,12 +895,12 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
@@ -908,22 +908,22 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="2"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -950,72 +950,72 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="26"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="26"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="26"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="26"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="25"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="26"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="26"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="26"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="26"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="26"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="25"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1788,6 +1788,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -1804,8 +1806,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
